--- a/2025 CyberForce Competition Team Numbers.xlsx
+++ b/2025 CyberForce Competition Team Numbers.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atheel\Desktop\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A2611-7D0F-4AB1-8C26-67AB9945D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4263780-50C2-437F-97C3-6570C75BFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{DC50AEC5-2DA9-471C-A8D5-F6270A56DE55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC50AEC5-2DA9-471C-A8D5-F6270A56DE55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="266">
   <si>
     <t xml:space="preserve">Team No. </t>
   </si>
@@ -284,9 +284,6 @@
     <t>FSU Bulldogs</t>
   </si>
   <si>
-    <t>Gator Byte</t>
-  </si>
-  <si>
     <t>The University of Tulsa</t>
   </si>
   <si>
@@ -554,12 +551,6 @@
     <t>XORing Eagles</t>
   </si>
   <si>
-    <t>Oakland Community College</t>
-  </si>
-  <si>
-    <t>OCC Cybersec</t>
-  </si>
-  <si>
     <t>Dakota State University</t>
   </si>
   <si>
@@ -683,9 +674,6 @@
     <t>0039</t>
   </si>
   <si>
-    <t>0040</t>
-  </si>
-  <si>
     <t>0041</t>
   </si>
   <si>
@@ -693,9 +681,6 @@
   </si>
   <si>
     <t>0043</t>
-  </si>
-  <si>
-    <t>0044</t>
   </si>
   <si>
     <t>0045</t>
@@ -942,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -953,16 +938,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,37 +950,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1080,13 +1043,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1097,6 +1053,38 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1112,16 +1100,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE39117E-642E-4BAC-BA12-26624CE693A0}" name="Table1" displayName="Table1" ref="A1:D97" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D97" xr:uid="{AAC78077-C0FD-4412-A76E-B5AF69BE0663}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-    <sortCondition ref="A1:A97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE39117E-642E-4BAC-BA12-26624CE693A0}" name="Table1" displayName="Table1" ref="A1:D95" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D95" xr:uid="{AAC78077-C0FD-4412-A76E-B5AF69BE0663}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+    <sortCondition ref="A1:A95"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D3FD572-0AE0-46A8-8764-8F0DB0E77A9B}" name="Team No. " dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{547DD100-CBA1-411E-843A-7A684A89D40A}" name="TEAMNUMBERXXXX" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{30910AC3-F264-495D-BA37-78C80D30AEF5}" name="University" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EA08365A-5902-45B9-B718-88F56ADAC705}" name="Team Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4D3FD572-0AE0-46A8-8764-8F0DB0E77A9B}" name="Team No. " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{547DD100-CBA1-411E-843A-7A684A89D40A}" name="TEAMNUMBERXXXX" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{30910AC3-F264-495D-BA37-78C80D30AEF5}" name="University" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EA08365A-5902-45B9-B718-88F56ADAC705}" name="Team Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,40 +1432,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC78077-C0FD-4412-A76E-B5AF69BE0663}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1486,12 +1474,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1500,12 +1488,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1514,12 +1502,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1528,12 +1516,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1542,12 +1530,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1556,12 +1544,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1570,12 +1558,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1584,12 +1572,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1598,12 +1586,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1612,12 +1600,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1626,12 +1614,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -1640,12 +1628,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1654,12 +1642,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -1668,12 +1656,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1682,1138 +1670,1110 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B34" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B35" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B41" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B42" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B43" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>45</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>46</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>47</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>48</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>49</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>50</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>52</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>53</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>54</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>55</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>56</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>57</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>58</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>59</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>60</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>61</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>63</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>64</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>65</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>66</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>67</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>68</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>69</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>70</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>71</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>72</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>73</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>74</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>75</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>76</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>77</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>78</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>79</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>80</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>81</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>82</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>83</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>84</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D81" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>85</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>86</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>87</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>88</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="D85" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>89</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>90</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>91</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>92</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>93</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>94</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>95</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>96</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
-        <v>52</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
-        <v>53</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="D93" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
-        <v>54</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="13" t="s">
+      <c r="B94" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
         <v>98</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
-        <v>55</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
-        <v>56</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
-        <v>57</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
-        <v>58</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
-        <v>59</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
-        <v>60</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
-        <v>61</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="12">
-        <v>63</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="12">
-        <v>64</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>65</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
-        <v>66</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>67</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
-        <v>68</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>69</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
-        <v>70</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>71</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
-        <v>72</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>73</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
-        <v>74</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>75</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
-        <v>76</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>77</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>78</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>79</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>80</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>81</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>82</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>83</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
-        <v>84</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>85</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>86</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
-        <v>87</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
-        <v>88</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
-        <v>89</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>90</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
-        <v>91</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>92</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="3">
-        <v>93</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="B95" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
-        <v>94</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="3">
-        <v>95</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
-        <v>96</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="3">
-        <v>97</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C95" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
-        <v>98</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="D95" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
